--- a/biology/Histoire de la zoologie et de la botanique/Wilhelm_Kuhnert/Wilhelm_Kuhnert.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Wilhelm_Kuhnert/Wilhelm_Kuhnert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Wilhelm Kuhnert, né le 18 septembre 1865 à Oppeln en Silésie (aujourd'hui en Pologne) et mort le 11 février 1926 à Flims en Suisse, est un peintre et illustrateur allemand spécialisé dans la peinture animalière.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Grâce à l'obtention d'une bourse, Kuhnert poursuit des études à l'Académie des beaux-arts de Berlin, de 1883 à 1887.
 De sa résidence berlinoise, il entreprend dès 1891 de nombreux voyages (surtout en Afrique orientale, alors possession allemande, où il se rend en 1891-1892 et en 1905-1906). Il travaille le paysage, mais surtout la peinture animalière : son modèle de prédilection est le lion (ce qui lui vaut le surnom de Löwen-Kuhnert), mais il représente également tigres, éléphants, zèbres, girafes... Il pratique le dessin, l'aquarelle, l'eau-forte, la peinture à l'huile.
